--- a/data/temporary/0.xlsx
+++ b/data/temporary/0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,12 +423,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B1" t="n">
         <v>3</v>
       </c>
       <c r="C1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
       </c>
     </row>
